--- a/tests/output.xlsx
+++ b/tests/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Azienda</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Compagnia</t>
+          <t>InsuranceCompany</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DannoTipo</t>
+          <t>DamageType</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TipoIncarico</t>
+          <t>CaseType</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RegolaritaAmministrativa</t>
+          <t>RequiredFields</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CampiObbligatori</t>
+          <t>TestResult</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CreazionePratica</t>
+          <t>TestDate</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fenomeno Elettrico</t>
+          <t>Danno Elettrico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,276 +493,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>CompanyId#InsuranceCompanyId#AgencyId#DamageTypeId#CaseTypeId#Number#ClaimReferenceNumber#InstructionDate#LossDate#ClaimAddress#Policy.RiskAddressLocation#Policy.RiskAddressNumber#Policy.RiskAddressCity#Policy.RiskAddressPostalCode#Policy.RiskAddressProvince#Policy.RiskAddressPostalCountry#Assicurato#Contraente#Danneggiato</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Azienda#Compagnia#DannoTipo#TipoDiIncarico#IdIncarico#NumeroDiSinistro#DataInizioIncarico#DataSinistro#Assicurato#Contraente#Danneggiato#CGA#NumPolizza#TelefonoAssicurato||CellulareAssicurato||TelefonoAltAssicurato||EmailAssicurato</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Automatica Con Campi Obbligatori</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Experta</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Generali</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Incendio</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Perizia</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Azienda#Compagnia#DannoTipo#TipoDiIncarico#IdIncarico#NumeroDiSinistro#DataInizioIncarico#DataSinistro#Assicurato#Contraente#Danneggiato#CGA#NumPolizza#TelefonoAssicurato||CellulareAssicurato||TelefonoAltAssicurato||EmailAssicurato</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Automatica Con Campi Obbligatori</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C&amp;P</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Vittoria</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Fenomeno Elettrico</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Perizia Tecnica</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Manuale</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A&amp;A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Generali</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Fenomeno Elettrico</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Perizia Tecnica</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Manuale</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Air B&amp;B</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Unipol</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Fenomeno Elettrico</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Perizia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Manuale</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Air B&amp;B</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Generali</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Fenomeno Elettrico</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Perizia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Manuale</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Experta</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Intesa SanPaoloAssicura</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Danno elettrico</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Perizia</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Manuale</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Experta</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Intesa SanPaoloAssicura</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Fenomeno Elettrico</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Perizia</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NumeroDiSinistro#DataInizioIncarico#DataSinistro#Assicurato#NumPolizza#TelefonoAssicurato||CellulareAssicurato||TelefonoAltAssicurato||EmailAssicurato</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Automatica Con Campi Obbligatori</t>
+          <t>2023-11-17 17:24:44</t>
         </is>
       </c>
     </row>
